--- a/01_project_관리/Project_Plan_scrum_WBS.xlsx
+++ b/01_project_관리/Project_Plan_scrum_WBS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래소시세(3개) 및 평균시세조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,10 +346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,14 +375,34 @@
   </si>
   <si>
     <t>기존 주문 체결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure 성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트럭쳐 데이터 저장 및 불러오기 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리믹스 solidity 에서 log찍는 evet 정의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,12 +1199,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,12 +1280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,9 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,65 +1301,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1302,6 +1314,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1527,6 +1544,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1561,6 +1579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,14 +1755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.625" bestFit="1" customWidth="1"/>
@@ -1756,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1764,7 +1783,7 @@
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="31.5" style="3" bestFit="1" customWidth="1"/>
@@ -1780,266 +1799,266 @@
     <col min="72" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="38" customFormat="1" ht="26.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:72" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="37"/>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="75" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="75"/>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="75"/>
-      <c r="BK1" s="75"/>
-      <c r="BL1" s="75"/>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="75"/>
-      <c r="BO1" s="75"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BS1" s="76"/>
-    </row>
-    <row r="2" spans="1:72" ht="47.25" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="74"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="93"/>
+      <c r="BP1" s="93"/>
+      <c r="BQ1" s="93"/>
+      <c r="BR1" s="93"/>
+      <c r="BS1" s="94"/>
+    </row>
+    <row r="2" spans="1:72" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="70"/>
-    </row>
-    <row r="3" spans="1:72">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="74"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="89"/>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="77" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="77" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="77" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="77" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="77" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="77" t="s">
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="77" t="s">
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="72" t="s">
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="73"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="91"/>
       <c r="BT3" s="4"/>
     </row>
-    <row r="4" spans="1:72">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2245,14 +2264,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
-      <c r="A5" s="67">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="12"/>
@@ -2324,12 +2343,12 @@
       <c r="BR5" s="6"/>
       <c r="BS5" s="11"/>
     </row>
-    <row r="6" spans="1:72">
-      <c r="A6" s="62"/>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
       <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
       <c r="F6" s="6"/>
@@ -2399,12 +2418,12 @@
       <c r="BR6" s="6"/>
       <c r="BS6" s="11"/>
     </row>
-    <row r="7" spans="1:72">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="12"/>
       <c r="E7" s="15"/>
       <c r="F7" s="6"/>
@@ -2435,20 +2454,20 @@
       <c r="AE7" s="58"/>
       <c r="AF7" s="56"/>
       <c r="AG7" s="56"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -2474,12 +2493,12 @@
       <c r="BR7" s="6"/>
       <c r="BS7" s="11"/>
     </row>
-    <row r="8" spans="1:72">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
       <c r="B8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="89"/>
+        <v>64</v>
+      </c>
+      <c r="C8" s="64"/>
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
       <c r="F8" s="6"/>
@@ -2493,15 +2512,15 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="91"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="66"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
@@ -2549,13 +2568,13 @@
       <c r="BR8" s="6"/>
       <c r="BS8" s="11"/>
     </row>
-    <row r="9" spans="1:72">
-      <c r="A9" s="68"/>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
       <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>67</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -2564,43 +2583,43 @@
       <c r="H9" s="6"/>
       <c r="I9" s="16"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="95"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
@@ -2626,12 +2645,12 @@
       <c r="BR9" s="6"/>
       <c r="BS9" s="11"/>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="89"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
       <c r="F10" s="6"/>
@@ -2701,10 +2720,10 @@
       <c r="BR10" s="6"/>
       <c r="BS10" s="11"/>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="89"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="12"/>
       <c r="E11" s="15"/>
       <c r="F11" s="6"/>
@@ -2774,9 +2793,9 @@
       <c r="BR11" s="6"/>
       <c r="BS11" s="11"/>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="C12" s="89"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
       <c r="F12" s="6"/>
@@ -2846,10 +2865,10 @@
       <c r="BR12" s="6"/>
       <c r="BS12" s="11"/>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="89"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
       <c r="F13" s="6"/>
@@ -2919,10 +2938,10 @@
       <c r="BR13" s="6"/>
       <c r="BS13" s="11"/>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="89"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
       <c r="F14" s="6"/>
@@ -2992,10 +3011,10 @@
       <c r="BR14" s="6"/>
       <c r="BS14" s="11"/>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="89"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
       <c r="F15" s="6"/>
@@ -3065,10 +3084,10 @@
       <c r="BR15" s="6"/>
       <c r="BS15" s="11"/>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="89"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="12"/>
       <c r="E16" s="15"/>
       <c r="F16" s="6"/>
@@ -3138,10 +3157,10 @@
       <c r="BR16" s="6"/>
       <c r="BS16" s="11"/>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="89"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="12"/>
       <c r="E17" s="15"/>
       <c r="F17" s="6"/>
@@ -3211,10 +3230,10 @@
       <c r="BR17" s="6"/>
       <c r="BS17" s="11"/>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="89"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
       <c r="F18" s="6"/>
@@ -3284,10 +3303,10 @@
       <c r="BR18" s="6"/>
       <c r="BS18" s="11"/>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="89"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="12"/>
       <c r="E19" s="15"/>
       <c r="F19" s="6"/>
@@ -3357,10 +3376,10 @@
       <c r="BR19" s="6"/>
       <c r="BS19" s="11"/>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="89"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
       <c r="F20" s="6"/>
@@ -3430,10 +3449,10 @@
       <c r="BR20" s="6"/>
       <c r="BS20" s="11"/>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="89"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="12"/>
       <c r="E21" s="15"/>
       <c r="F21" s="6"/>
@@ -3503,10 +3522,10 @@
       <c r="BR21" s="6"/>
       <c r="BS21" s="11"/>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="89"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="12"/>
       <c r="E22" s="15"/>
       <c r="F22" s="6"/>
@@ -3576,10 +3595,10 @@
       <c r="BR22" s="6"/>
       <c r="BS22" s="11"/>
     </row>
-    <row r="23" spans="1:71">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="89"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="12"/>
       <c r="E23" s="15"/>
       <c r="F23" s="6"/>
@@ -3649,10 +3668,10 @@
       <c r="BR23" s="6"/>
       <c r="BS23" s="11"/>
     </row>
-    <row r="24" spans="1:71">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="89"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="12"/>
       <c r="E24" s="15"/>
       <c r="F24" s="6"/>
@@ -3722,10 +3741,10 @@
       <c r="BR24" s="6"/>
       <c r="BS24" s="11"/>
     </row>
-    <row r="25" spans="1:71">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="89"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="12"/>
       <c r="E25" s="15"/>
       <c r="F25" s="6"/>
@@ -3795,10 +3814,10 @@
       <c r="BR25" s="6"/>
       <c r="BS25" s="11"/>
     </row>
-    <row r="26" spans="1:71">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="89"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="12"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6"/>
@@ -3868,10 +3887,10 @@
       <c r="BR26" s="6"/>
       <c r="BS26" s="11"/>
     </row>
-    <row r="27" spans="1:71">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="89"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="12"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6"/>
@@ -3941,10 +3960,10 @@
       <c r="BR27" s="6"/>
       <c r="BS27" s="11"/>
     </row>
-    <row r="28" spans="1:71">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="89"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="12"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6"/>
@@ -4014,10 +4033,10 @@
       <c r="BR28" s="6"/>
       <c r="BS28" s="11"/>
     </row>
-    <row r="29" spans="1:71">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="89"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="12"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6"/>
@@ -4087,10 +4106,10 @@
       <c r="BR29" s="6"/>
       <c r="BS29" s="11"/>
     </row>
-    <row r="30" spans="1:71">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="89"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="12"/>
       <c r="E30" s="15"/>
       <c r="F30" s="6"/>
@@ -4160,10 +4179,10 @@
       <c r="BR30" s="6"/>
       <c r="BS30" s="11"/>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="89"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="12"/>
       <c r="E31" s="15"/>
       <c r="F31" s="6"/>
@@ -4233,10 +4252,10 @@
       <c r="BR31" s="6"/>
       <c r="BS31" s="11"/>
     </row>
-    <row r="32" spans="1:71">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="89"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="12"/>
       <c r="E32" s="15"/>
       <c r="F32" s="6"/>
@@ -4306,10 +4325,10 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="11"/>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="89"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="12"/>
       <c r="E33" s="15"/>
       <c r="F33" s="6"/>
@@ -4379,10 +4398,10 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="11"/>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="89"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="12"/>
       <c r="E34" s="15"/>
       <c r="F34" s="6"/>
@@ -4452,10 +4471,10 @@
       <c r="BR34" s="6"/>
       <c r="BS34" s="11"/>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="89"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="12"/>
       <c r="E35" s="15"/>
       <c r="F35" s="6"/>
@@ -4525,10 +4544,10 @@
       <c r="BR35" s="6"/>
       <c r="BS35" s="11"/>
     </row>
-    <row r="36" spans="1:71" ht="17.25" thickBot="1">
+    <row r="36" spans="1:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="90"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="42"/>
       <c r="E36" s="43"/>
       <c r="F36" s="41"/>
@@ -4598,9 +4617,9 @@
       <c r="BR36" s="41"/>
       <c r="BS36" s="45"/>
     </row>
-    <row r="37" spans="1:71">
-      <c r="A37" s="64"/>
-      <c r="B37" s="61" t="s">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="83" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="47" t="s">
@@ -4675,9 +4694,9 @@
       <c r="BR37" s="46"/>
       <c r="BS37" s="49"/>
     </row>
-    <row r="38" spans="1:71">
-      <c r="A38" s="65"/>
-      <c r="B38" s="62"/>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="53" t="s">
         <v>53</v>
       </c>
@@ -4750,9 +4769,9 @@
       <c r="BR38" s="6"/>
       <c r="BS38" s="16"/>
     </row>
-    <row r="39" spans="1:71" ht="17.25" thickBot="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="63"/>
+    <row r="39" spans="1:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="87"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="51" t="s">
         <v>54</v>
       </c>
@@ -4827,12 +4846,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:AO1"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="E2:BS2"/>
@@ -4848,6 +4861,12 @@
     <mergeCell ref="AE3:AK3"/>
     <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:AO1"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4857,20 +4876,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
@@ -4887,7 +4906,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1">
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>27</v>
@@ -4906,7 +4925,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>28</v>
@@ -4925,7 +4944,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -4940,7 +4959,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -4955,7 +4974,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4970,7 +4989,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4985,7 +5004,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1">
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5000,7 +5019,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1">
+    <row r="10" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
@@ -5017,7 +5036,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="19" t="s">
         <v>26</v>
@@ -5034,7 +5053,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1">
+    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="28" t="s">
@@ -5059,7 +5078,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1">
+    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
         <v>6</v>
@@ -5082,7 +5101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="17.25" thickBot="1">
+    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
         <v>8</v>
@@ -5103,7 +5122,7 @@
       <c r="M14" s="59"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1">
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -5118,7 +5137,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -5133,7 +5152,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -5148,7 +5167,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
@@ -5165,7 +5184,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>25</v>
@@ -5182,7 +5201,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="2:14" ht="42.75">
+    <row r="20" spans="2:14" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="8"/>
       <c r="D20" s="24" t="s">
@@ -5215,7 +5234,7 @@
       <c r="M20" s="24"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="8" t="s">
         <v>6</v>
@@ -5232,7 +5251,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="8" t="s">
         <v>8</v>
@@ -5249,7 +5268,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1">
+    <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -5272,14 +5291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
@@ -5288,7 +5307,7 @@
     <col min="9" max="9" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -5299,13 +5318,13 @@
         <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5316,13 +5335,13 @@
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5335,114 +5354,114 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>91</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>92</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -5450,143 +5469,151 @@
         <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="87" t="s">
-        <v>73</v>
+      <c r="B12" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5603,14 +5630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_project_관리/Project_Plan_scrum_WBS.xlsx
+++ b/01_project_관리/Project_Plan_scrum_WBS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -395,14 +395,22 @@
   </si>
   <si>
     <t>리믹스 solidity 에서 log찍는 evet 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문형준</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,24 +1240,60 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,42 +1307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1552,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1579,7 +1586,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1755,14 +1761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.625" bestFit="1" customWidth="1"/>
@@ -1775,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1783,7 +1789,7 @@
       <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="31.5" style="3" bestFit="1" customWidth="1"/>
@@ -1799,266 +1805,266 @@
     <col min="72" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:72" s="38" customFormat="1" ht="26.25">
+      <c r="A1" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="37"/>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="93" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93"/>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
-      <c r="BJ1" s="93"/>
-      <c r="BK1" s="93"/>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="93"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="93"/>
-      <c r="BP1" s="93"/>
-      <c r="BQ1" s="93"/>
-      <c r="BR1" s="93"/>
-      <c r="BS1" s="94"/>
-    </row>
-    <row r="2" spans="1:72" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="92"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="85"/>
+    </row>
+    <row r="2" spans="1:72" ht="47.25" customHeight="1">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="89"/>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="92"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="79"/>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="75" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="75" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="75" t="s">
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="75" t="s">
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="75" t="s">
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="75" t="s">
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="76" t="s">
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76"/>
-      <c r="BS3" s="91"/>
+      <c r="BO3" s="81"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="82"/>
       <c r="BT3" s="4"/>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="92"/>
+    <row r="4" spans="1:72">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2264,14 +2270,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A5" s="72">
+    <row r="5" spans="1:72">
+      <c r="A5" s="88">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="92" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="12"/>
@@ -2343,12 +2349,12 @@
       <c r="BR5" s="6"/>
       <c r="BS5" s="11"/>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72">
       <c r="A6" s="73"/>
       <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
       <c r="F6" s="6"/>
@@ -2418,12 +2424,12 @@
       <c r="BR6" s="6"/>
       <c r="BS6" s="11"/>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72">
       <c r="A7" s="73"/>
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="12"/>
       <c r="E7" s="15"/>
       <c r="F7" s="6"/>
@@ -2493,7 +2499,7 @@
       <c r="BR7" s="6"/>
       <c r="BS7" s="11"/>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72">
       <c r="A8" s="73"/>
       <c r="B8" s="6" t="s">
         <v>64</v>
@@ -2568,8 +2574,8 @@
       <c r="BR8" s="6"/>
       <c r="BS8" s="11"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:72">
+      <c r="A9" s="89"/>
       <c r="B9" s="6" t="s">
         <v>65</v>
       </c>
@@ -2645,7 +2651,7 @@
       <c r="BR9" s="6"/>
       <c r="BS9" s="11"/>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -2720,7 +2726,7 @@
       <c r="BR10" s="6"/>
       <c r="BS10" s="11"/>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="64"/>
@@ -2793,7 +2799,7 @@
       <c r="BR11" s="6"/>
       <c r="BS11" s="11"/>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72">
       <c r="A12" s="6"/>
       <c r="C12" s="64"/>
       <c r="D12" s="12"/>
@@ -2865,7 +2871,7 @@
       <c r="BR12" s="6"/>
       <c r="BS12" s="11"/>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="64"/>
@@ -2938,7 +2944,7 @@
       <c r="BR13" s="6"/>
       <c r="BS13" s="11"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="64"/>
@@ -3011,7 +3017,7 @@
       <c r="BR14" s="6"/>
       <c r="BS14" s="11"/>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="64"/>
@@ -3084,7 +3090,7 @@
       <c r="BR15" s="6"/>
       <c r="BS15" s="11"/>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="64"/>
@@ -3157,7 +3163,7 @@
       <c r="BR16" s="6"/>
       <c r="BS16" s="11"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="64"/>
@@ -3230,7 +3236,7 @@
       <c r="BR17" s="6"/>
       <c r="BS17" s="11"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:71">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
@@ -3303,7 +3309,7 @@
       <c r="BR18" s="6"/>
       <c r="BS18" s="11"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="64"/>
@@ -3376,7 +3382,7 @@
       <c r="BR19" s="6"/>
       <c r="BS19" s="11"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="64"/>
@@ -3449,7 +3455,7 @@
       <c r="BR20" s="6"/>
       <c r="BS20" s="11"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="64"/>
@@ -3522,7 +3528,7 @@
       <c r="BR21" s="6"/>
       <c r="BS21" s="11"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="64"/>
@@ -3595,7 +3601,7 @@
       <c r="BR22" s="6"/>
       <c r="BS22" s="11"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="64"/>
@@ -3668,7 +3674,7 @@
       <c r="BR23" s="6"/>
       <c r="BS23" s="11"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="64"/>
@@ -3741,7 +3747,7 @@
       <c r="BR24" s="6"/>
       <c r="BS24" s="11"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="64"/>
@@ -3814,7 +3820,7 @@
       <c r="BR25" s="6"/>
       <c r="BS25" s="11"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="64"/>
@@ -3887,7 +3893,7 @@
       <c r="BR26" s="6"/>
       <c r="BS26" s="11"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="64"/>
@@ -3960,7 +3966,7 @@
       <c r="BR27" s="6"/>
       <c r="BS27" s="11"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="64"/>
@@ -4033,7 +4039,7 @@
       <c r="BR28" s="6"/>
       <c r="BS28" s="11"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="64"/>
@@ -4106,7 +4112,7 @@
       <c r="BR29" s="6"/>
       <c r="BS29" s="11"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="64"/>
@@ -4179,7 +4185,7 @@
       <c r="BR30" s="6"/>
       <c r="BS30" s="11"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="64"/>
@@ -4252,7 +4258,7 @@
       <c r="BR31" s="6"/>
       <c r="BS31" s="11"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="64"/>
@@ -4325,7 +4331,7 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="11"/>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="64"/>
@@ -4398,7 +4404,7 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="11"/>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="64"/>
@@ -4471,7 +4477,7 @@
       <c r="BR34" s="6"/>
       <c r="BS34" s="11"/>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="64"/>
@@ -4544,7 +4550,7 @@
       <c r="BR35" s="6"/>
       <c r="BS35" s="11"/>
     </row>
-    <row r="36" spans="1:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:71" ht="17.25" thickBot="1">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="65"/>
@@ -4617,9 +4623,9 @@
       <c r="BR36" s="41"/>
       <c r="BS36" s="45"/>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
-      <c r="B37" s="83" t="s">
+    <row r="37" spans="1:71">
+      <c r="A37" s="75"/>
+      <c r="B37" s="72" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="47" t="s">
@@ -4694,8 +4700,8 @@
       <c r="BR37" s="46"/>
       <c r="BS37" s="49"/>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
+    <row r="38" spans="1:71">
+      <c r="A38" s="76"/>
       <c r="B38" s="73"/>
       <c r="C38" s="53" t="s">
         <v>53</v>
@@ -4769,9 +4775,9 @@
       <c r="BR38" s="6"/>
       <c r="BS38" s="16"/>
     </row>
-    <row r="39" spans="1:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="87"/>
-      <c r="B39" s="84"/>
+    <row r="39" spans="1:71" ht="17.25" thickBot="1">
+      <c r="A39" s="77"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="51" t="s">
         <v>54</v>
       </c>
@@ -4846,6 +4852,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:AO1"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="E2:BS2"/>
@@ -4862,11 +4873,6 @@
     <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:AO1"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4876,20 +4882,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:14" ht="17.25" thickBot="1">
       <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
@@ -4906,7 +4912,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="17.25" thickBot="1">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>27</v>
@@ -4925,7 +4931,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>28</v>
@@ -4944,7 +4950,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -4959,7 +4965,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -4974,7 +4980,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4989,7 +4995,7 @@
       <c r="M7" s="19"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5004,7 +5010,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="17.25" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5019,7 +5025,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="13.5" customHeight="1">
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
@@ -5036,7 +5042,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B11" s="18"/>
       <c r="C11" s="19" t="s">
         <v>26</v>
@@ -5053,7 +5059,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="17.25" thickBot="1">
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="28" t="s">
@@ -5078,7 +5084,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="17.25" thickBot="1">
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
         <v>6</v>
@@ -5101,7 +5107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="17.25" thickBot="1">
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
         <v>8</v>
@@ -5122,7 +5128,7 @@
       <c r="M14" s="59"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="17.25" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -5137,7 +5143,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -5152,7 +5158,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -5167,7 +5173,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14">
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
@@ -5184,7 +5190,7 @@
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14">
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>25</v>
@@ -5201,7 +5207,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="2:14" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="42.75">
       <c r="B20" s="18"/>
       <c r="C20" s="8"/>
       <c r="D20" s="24" t="s">
@@ -5234,7 +5240,7 @@
       <c r="M20" s="24"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14">
       <c r="B21" s="18"/>
       <c r="C21" s="8" t="s">
         <v>6</v>
@@ -5251,7 +5257,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14">
       <c r="B22" s="18"/>
       <c r="C22" s="8" t="s">
         <v>8</v>
@@ -5268,7 +5274,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="17.25" thickBot="1">
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -5291,14 +5297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
@@ -5307,7 +5313,7 @@
     <col min="9" max="9" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5398,10 +5404,14 @@
       <c r="C6" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5414,7 +5424,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -5444,7 +5454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -5461,7 +5471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -5474,7 +5484,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -5487,7 +5497,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -5498,7 +5508,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -5509,7 +5519,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -5526,7 +5536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -5543,77 +5553,77 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5630,14 +5640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
